--- a/HRBackend/output/SHERIF.xlsx
+++ b/HRBackend/output/SHERIF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sherif" sheetId="1" r:id="rId1"/>
+    <sheet name="SHERIF" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No</v>
+        <v>AC-No.</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,26 +438,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <v>34</v>
       </c>
       <c r="B2" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C2" t="str">
         <v>21-Dec-22</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H2" t="str">
         <v>True</v>
@@ -469,33 +469,33 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="str">
+        <v>34</v>
       </c>
       <c r="B3" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C3" t="str">
         <v>22-Dec-22</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:28</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15:38</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:18</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:22</v>
       </c>
       <c r="H3" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -504,33 +504,33 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="str">
+        <v>34</v>
       </c>
       <c r="B4" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C4" t="str">
         <v>25-Dec-22</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:00</v>
       </c>
       <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:07</v>
       </c>
       <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -539,33 +539,33 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="str">
+        <v>34</v>
       </c>
       <c r="B5" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C5" t="str">
         <v>26-Dec-22</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:56</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:04</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -574,33 +574,33 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="str">
+        <v>34</v>
       </c>
       <c r="B6" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C6" t="str">
         <v>27-Dec-22</v>
       </c>
       <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:32</v>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:22</v>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -609,33 +609,33 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="str">
+        <v>34</v>
       </c>
       <c r="B7" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C7" t="str">
         <v>28-Dec-22</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:47</v>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:15</v>
       </c>
       <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,33 +644,33 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="str">
+        <v>34</v>
       </c>
       <c r="B8" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C8" t="str">
         <v>29-Dec-22</v>
       </c>
       <c r="D8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:32</v>
       </c>
       <c r="E8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:22</v>
       </c>
       <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:22</v>
       </c>
       <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:38</v>
       </c>
       <c r="H8" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -679,33 +679,33 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="str">
+        <v>34</v>
       </c>
       <c r="B9" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C9" t="str">
         <v>01-Jan-23</v>
       </c>
       <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:14</v>
       </c>
       <c r="E9" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:04</v>
       </c>
       <c r="G9" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:00</v>
       </c>
       <c r="H9" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -714,33 +714,33 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="str">
+        <v>34</v>
       </c>
       <c r="B10" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C10" t="str">
         <v>02-Jan-23</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:47</v>
       </c>
       <c r="E10" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:58</v>
       </c>
       <c r="F10" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:37</v>
       </c>
       <c r="G10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H10" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -749,33 +749,33 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="str">
+        <v>34</v>
       </c>
       <c r="B11" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C11" t="str">
         <v>03-Jan-23</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:20</v>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:59</v>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:10</v>
       </c>
       <c r="G11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -784,33 +784,33 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>1</v>
+      <c r="A12" t="str">
+        <v>34</v>
       </c>
       <c r="B12" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C12" t="str">
         <v>04-Jan-23</v>
       </c>
       <c r="D12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:25</v>
       </c>
       <c r="E12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:04</v>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:15</v>
       </c>
       <c r="G12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -819,33 +819,33 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>1</v>
+      <c r="A13" t="str">
+        <v>34</v>
       </c>
       <c r="B13" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C13" t="str">
         <v>05-Jan-23</v>
       </c>
       <c r="D13" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:14</v>
       </c>
       <c r="E13" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:54</v>
       </c>
       <c r="F13" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:04</v>
       </c>
       <c r="G13" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:06</v>
       </c>
       <c r="H13" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -854,30 +854,30 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>1</v>
+      <c r="A14" t="str">
+        <v>34</v>
       </c>
       <c r="B14" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C14" t="str">
         <v>08-Jan-23</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H14" t="str">
         <v>True</v>
@@ -889,33 +889,33 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>1</v>
+      <c r="A15" t="str">
+        <v>34</v>
       </c>
       <c r="B15" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C15" t="str">
         <v>09-Jan-23</v>
       </c>
       <c r="D15" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:31</v>
       </c>
       <c r="E15" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:03</v>
       </c>
       <c r="F15" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:21</v>
       </c>
       <c r="G15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -924,33 +924,33 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>1</v>
+      <c r="A16" t="str">
+        <v>34</v>
       </c>
       <c r="B16" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C16" t="str">
         <v>10-Jan-23</v>
       </c>
       <c r="D16" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:00</v>
       </c>
       <c r="E16" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:05</v>
       </c>
       <c r="F16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I16" t="str">
         <v/>
@@ -959,33 +959,33 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>1</v>
+      <c r="A17" t="str">
+        <v>34</v>
       </c>
       <c r="B17" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C17" t="str">
         <v>11-Jan-23</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:14</v>
       </c>
       <c r="E17" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:04</v>
       </c>
       <c r="G17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:00</v>
       </c>
       <c r="H17" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -994,30 +994,30 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>1</v>
+      <c r="A18" t="str">
+        <v>34</v>
       </c>
       <c r="B18" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C18" t="str">
         <v>12-Jan-23</v>
       </c>
       <c r="D18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <v>True</v>
@@ -1029,33 +1029,33 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>1</v>
+      <c r="A19" t="str">
+        <v>34</v>
       </c>
       <c r="B19" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C19" t="str">
         <v>15-Jan-23</v>
       </c>
       <c r="D19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:09</v>
       </c>
       <c r="E19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:01</v>
       </c>
       <c r="F19" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1064,33 +1064,33 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>1</v>
+      <c r="A20" t="str">
+        <v>34</v>
       </c>
       <c r="B20" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C20" t="str">
         <v>16-Jan-23</v>
       </c>
       <c r="D20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:20</v>
       </c>
       <c r="E20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:01</v>
       </c>
       <c r="F20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:10</v>
       </c>
       <c r="G20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1099,33 +1099,33 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>1</v>
+      <c r="A21" t="str">
+        <v>34</v>
       </c>
       <c r="B21" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C21" t="str">
         <v>17-Jan-23</v>
       </c>
       <c r="D21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:00</v>
       </c>
       <c r="E21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:09</v>
       </c>
       <c r="F21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1134,33 +1134,33 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>1</v>
+      <c r="A22" t="str">
+        <v>34</v>
       </c>
       <c r="B22" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C22" t="str">
         <v>18-Jan-23</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:26</v>
       </c>
       <c r="E22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:00</v>
       </c>
       <c r="H22" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,33 +1169,33 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>1</v>
+      <c r="A23" t="str">
+        <v>34</v>
       </c>
       <c r="B23" t="str">
-        <v>Sherif</v>
+        <v>SHERIF</v>
       </c>
       <c r="C23" t="str">
         <v>19-Jan-23</v>
       </c>
       <c r="D23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:59</v>
       </c>
       <c r="F23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:00</v>
       </c>
       <c r="G23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H23" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>penta3d</v>
+        <v>promech</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/SHERIF.xlsx
+++ b/HRBackend/output/SHERIF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="SHERIF" sheetId="1" r:id="rId1"/>
+    <sheet name="Sherif" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No.</v>
+        <v>AC-No</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,26 +438,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>34</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C2" t="str">
         <v>21-Dec-22</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H2" t="str">
         <v>True</v>
@@ -469,33 +469,33 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>34</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C3" t="str">
         <v>22-Dec-22</v>
       </c>
       <c r="D3" t="str">
-        <v>09:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>15:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>00:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>01:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -504,33 +504,33 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>34</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C4" t="str">
         <v>25-Dec-22</v>
       </c>
       <c r="D4" t="str">
-        <v>09:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>17:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -539,33 +539,33 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>34</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C5" t="str">
         <v>26-Dec-22</v>
       </c>
       <c r="D5" t="str">
-        <v>08:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -574,33 +574,33 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>34</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C6" t="str">
         <v>27-Dec-22</v>
       </c>
       <c r="D6" t="str">
-        <v>09:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>00:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -609,33 +609,33 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>34</v>
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C7" t="str">
         <v>28-Dec-22</v>
       </c>
       <c r="D7" t="str">
-        <v>08:47</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E7" t="str">
-        <v>17:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,33 +644,33 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>34</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C8" t="str">
         <v>29-Dec-22</v>
       </c>
       <c r="D8" t="str">
-        <v>09:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <v>16:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="str">
-        <v>00:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G8" t="str">
-        <v>00:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -679,33 +679,33 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>34</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C9" t="str">
         <v>01-Jan-23</v>
       </c>
       <c r="D9" t="str">
-        <v>09:14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="str">
-        <v>00:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G9" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -714,33 +714,33 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>34</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C10" t="str">
         <v>02-Jan-23</v>
       </c>
       <c r="D10" t="str">
-        <v>09:47</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="str">
-        <v>16:58</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="str">
-        <v>00:37</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -749,33 +749,33 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>34</v>
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C11" t="str">
         <v>03-Jan-23</v>
       </c>
       <c r="D11" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v>16:59</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -784,33 +784,33 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>34</v>
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C12" t="str">
         <v>04-Jan-23</v>
       </c>
       <c r="D12" t="str">
-        <v>09:25</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="str">
-        <v>00:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -819,33 +819,33 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>34</v>
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C13" t="str">
         <v>05-Jan-23</v>
       </c>
       <c r="D13" t="str">
-        <v>09:14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="str">
-        <v>16:54</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F13" t="str">
-        <v>00:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G13" t="str">
-        <v>00:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -854,30 +854,30 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>34</v>
+      <c r="A14">
+        <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C14" t="str">
         <v>08-Jan-23</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
         <v>True</v>
@@ -889,33 +889,33 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>34</v>
+      <c r="A15">
+        <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C15" t="str">
         <v>09-Jan-23</v>
       </c>
       <c r="D15" t="str">
-        <v>09:31</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E15" t="str">
-        <v>17:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F15" t="str">
-        <v>00:21</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -924,33 +924,33 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>34</v>
+      <c r="A16">
+        <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C16" t="str">
         <v>10-Jan-23</v>
       </c>
       <c r="D16" t="str">
-        <v>09:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E16" t="str">
-        <v>17:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I16" t="str">
         <v/>
@@ -959,33 +959,33 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>34</v>
+      <c r="A17">
+        <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C17" t="str">
         <v>11-Jan-23</v>
       </c>
       <c r="D17" t="str">
-        <v>09:14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F17" t="str">
-        <v>00:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -994,30 +994,30 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>34</v>
+      <c r="A18">
+        <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C18" t="str">
         <v>12-Jan-23</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H18" t="str">
         <v>True</v>
@@ -1029,33 +1029,33 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>34</v>
+      <c r="A19">
+        <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C19" t="str">
         <v>15-Jan-23</v>
       </c>
       <c r="D19" t="str">
-        <v>09:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E19" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1064,33 +1064,33 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>34</v>
+      <c r="A20">
+        <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C20" t="str">
         <v>16-Jan-23</v>
       </c>
       <c r="D20" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1099,33 +1099,33 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>34</v>
+      <c r="A21">
+        <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C21" t="str">
         <v>17-Jan-23</v>
       </c>
       <c r="D21" t="str">
-        <v>09:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" t="str">
-        <v>17:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1134,33 +1134,33 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>34</v>
+      <c r="A22">
+        <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C22" t="str">
         <v>18-Jan-23</v>
       </c>
       <c r="D22" t="str">
-        <v>08:26</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G22" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,33 +1169,33 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>34</v>
+      <c r="A23">
+        <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>SHERIF</v>
+        <v>Sherif</v>
       </c>
       <c r="C23" t="str">
         <v>19-Jan-23</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E23" t="str">
-        <v>16:59</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F23" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>promech</v>
+        <v>penta3d</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/SHERIF.xlsx
+++ b/HRBackend/output/SHERIF.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,10 +445,10 @@
         <v>SHERIF</v>
       </c>
       <c r="C2" t="str">
-        <v>23-Jul-23</v>
+        <v>21-Aug-23</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>08:57</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -457,10 +457,10 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H2" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -480,19 +480,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C3" t="str">
-        <v>24-Jul-23</v>
+        <v>22-Aug-23</v>
       </c>
       <c r="D3" t="str">
-        <v>09:00</v>
+        <v>09:11</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>16:58</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="G3" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -515,22 +515,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C4" t="str">
-        <v>25-Jul-23</v>
+        <v>23-Aug-23</v>
       </c>
       <c r="D4" t="str">
-        <v>09:40</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>16:54</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>00:30</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>00:06</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -550,19 +550,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C5" t="str">
-        <v>26-Jul-23</v>
+        <v>24-Aug-23</v>
       </c>
       <c r="D5" t="str">
-        <v>08:52</v>
+        <v>09:02</v>
       </c>
       <c r="E5" t="str">
-        <v>16:55</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -585,19 +585,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Jul-23</v>
+        <v>27-Aug-23</v>
       </c>
       <c r="D6" t="str">
-        <v>09:13</v>
+        <v>09:06</v>
       </c>
       <c r="E6" t="str">
-        <v>14:51</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>00:03</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>02:09</v>
+        <v>01:00</v>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -620,22 +620,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C7" t="str">
-        <v>30-Jul-23</v>
+        <v>28-Aug-23</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>10:14</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>01:04</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -655,16 +655,16 @@
         <v>SHERIF</v>
       </c>
       <c r="C8" t="str">
-        <v>31-Jul-23</v>
+        <v>29-Aug-23</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>09:10</v>
       </c>
       <c r="E8" t="str">
-        <v>16:57</v>
+        <v>17:04</v>
       </c>
       <c r="F8" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -690,19 +690,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C9" t="str">
-        <v>01-Aug-23</v>
+        <v>30-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v>08:58</v>
+        <v>09:02</v>
       </c>
       <c r="E9" t="str">
-        <v>16:48</v>
+        <v>17:07</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>00:12</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -725,16 +725,16 @@
         <v>SHERIF</v>
       </c>
       <c r="C10" t="str">
-        <v>02-Aug-23</v>
+        <v>31-Aug-23</v>
       </c>
       <c r="D10" t="str">
-        <v>09:17</v>
+        <v>08:17</v>
       </c>
       <c r="E10" t="str">
-        <v>17:02</v>
+        <v>16:55</v>
       </c>
       <c r="F10" t="str">
-        <v>00:07</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -760,10 +760,10 @@
         <v>SHERIF</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Aug-23</v>
+        <v>03-Sep-23</v>
       </c>
       <c r="D11" t="str">
-        <v>09:08</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -772,10 +772,10 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -795,22 +795,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C12" t="str">
-        <v>06-Aug-23</v>
+        <v>04-Sep-23</v>
       </c>
       <c r="D12" t="str">
-        <v>08:48</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>16:52</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>00:08</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -830,22 +830,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C13" t="str">
-        <v>07-Aug-23</v>
+        <v>05-Sep-23</v>
       </c>
       <c r="D13" t="str">
-        <v>09:12</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>16:55</v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>00:02</v>
+        <v/>
       </c>
       <c r="G13" t="str">
         <v/>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -865,22 +865,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C14" t="str">
-        <v>08-Aug-23</v>
+        <v>06-Sep-23</v>
       </c>
       <c r="D14" t="str">
-        <v>09:26</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>16:54</v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v>00:16</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>00:06</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -900,22 +900,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C15" t="str">
-        <v>09-Aug-23</v>
+        <v>07-Sep-23</v>
       </c>
       <c r="D15" t="str">
-        <v>08:53</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>14:38</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>02:22</v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -935,19 +935,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Aug-23</v>
+        <v>10-Sep-23</v>
       </c>
       <c r="D16" t="str">
-        <v>09:05</v>
+        <v>09:08</v>
       </c>
       <c r="E16" t="str">
-        <v>15:39</v>
+        <v>17:08</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>01:21</v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -970,22 +970,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C17" t="str">
-        <v>13-Aug-23</v>
+        <v>11-Sep-23</v>
       </c>
       <c r="D17" t="str">
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>16:51</v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>00:09</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -1005,19 +1005,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C18" t="str">
-        <v>14-Aug-23</v>
+        <v>12-Sep-23</v>
       </c>
       <c r="D18" t="str">
-        <v>08:55</v>
+        <v>09:17</v>
       </c>
       <c r="E18" t="str">
-        <v>16:58</v>
+        <v>16:44</v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>00:07</v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>00:16</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -1040,19 +1040,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C19" t="str">
-        <v>15-Aug-23</v>
+        <v>13-Sep-23</v>
       </c>
       <c r="D19" t="str">
-        <v>09:25</v>
+        <v>09:13</v>
       </c>
       <c r="E19" t="str">
-        <v>16:57</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>00:15</v>
+        <v>00:03</v>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1075,19 +1075,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C20" t="str">
-        <v>16-Aug-23</v>
+        <v>14-Sep-23</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>09:06</v>
       </c>
       <c r="E20" t="str">
-        <v>16:53</v>
+        <v/>
       </c>
       <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
         <v>01:00</v>
-      </c>
-      <c r="G20" t="str">
-        <v>00:07</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1110,19 +1110,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Aug-23</v>
+        <v>17-Sep-23</v>
       </c>
       <c r="D21" t="str">
-        <v>09:05</v>
+        <v>09:14</v>
       </c>
       <c r="E21" t="str">
-        <v>16:50</v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>00:04</v>
       </c>
       <c r="G21" t="str">
-        <v>00:10</v>
+        <v>01:00</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1145,19 +1145,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C22" t="str">
-        <v>20-Aug-23</v>
+        <v>18-Sep-23</v>
       </c>
       <c r="D22" t="str">
-        <v>09:13</v>
+        <v>09:11</v>
       </c>
       <c r="E22" t="str">
-        <v>15:14</v>
+        <v>16:57</v>
       </c>
       <c r="F22" t="str">
-        <v>00:03</v>
+        <v>00:01</v>
       </c>
       <c r="G22" t="str">
-        <v>01:46</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1169,12 +1169,82 @@
         <v/>
       </c>
       <c r="K22" t="str">
+        <v>promech</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>34</v>
+      </c>
+      <c r="B23" t="str">
+        <v>SHERIF</v>
+      </c>
+      <c r="C23" t="str">
+        <v>19-Sep-23</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>True</v>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>promech</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>34</v>
+      </c>
+      <c r="B24" t="str">
+        <v>SHERIF</v>
+      </c>
+      <c r="C24" t="str">
+        <v>20-Sep-23</v>
+      </c>
+      <c r="D24" t="str">
+        <v>09:26</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v>00:16</v>
+      </c>
+      <c r="G24" t="str">
+        <v>01:00</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <v>promech</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/HRBackend/output/SHERIF.xlsx
+++ b/HRBackend/output/SHERIF.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,10 +445,10 @@
         <v>SHERIF</v>
       </c>
       <c r="C2" t="str">
-        <v>21-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
-        <v>08:57</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -457,10 +457,10 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -480,19 +480,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C3" t="str">
-        <v>22-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
-        <v>09:11</v>
+        <v>09:00</v>
       </c>
       <c r="E3" t="str">
-        <v>16:58</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>00:01</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -515,22 +515,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C4" t="str">
-        <v>23-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>09:40</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>16:54</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>00:30</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>00:06</v>
       </c>
       <c r="H4" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -550,19 +550,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C5" t="str">
-        <v>24-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
-        <v>09:02</v>
+        <v>08:52</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>16:55</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -585,19 +585,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
-        <v>09:06</v>
+        <v>09:13</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>14:51</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>00:03</v>
       </c>
       <c r="G6" t="str">
-        <v>01:00</v>
+        <v>02:09</v>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -620,22 +620,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C7" t="str">
-        <v>28-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
-        <v>10:14</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>01:04</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -655,16 +655,16 @@
         <v>SHERIF</v>
       </c>
       <c r="C8" t="str">
-        <v>29-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
-        <v>09:10</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>17:04</v>
+        <v>16:57</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -690,19 +690,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C9" t="str">
-        <v>30-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v>09:02</v>
+        <v>08:58</v>
       </c>
       <c r="E9" t="str">
-        <v>17:07</v>
+        <v>16:48</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>00:12</v>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -725,16 +725,16 @@
         <v>SHERIF</v>
       </c>
       <c r="C10" t="str">
-        <v>31-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
-        <v>08:17</v>
+        <v>09:17</v>
       </c>
       <c r="E10" t="str">
-        <v>16:55</v>
+        <v>17:02</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>00:07</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -760,10 +760,10 @@
         <v>SHERIF</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>09:08</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -772,10 +772,10 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H11" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -795,22 +795,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C12" t="str">
-        <v>04-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>08:48</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>16:52</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>00:08</v>
       </c>
       <c r="H12" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -830,22 +830,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C13" t="str">
-        <v>05-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>09:12</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>16:55</v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>00:02</v>
       </c>
       <c r="G13" t="str">
         <v/>
       </c>
       <c r="H13" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -865,22 +865,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C14" t="str">
-        <v>06-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>09:26</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>16:54</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>00:16</v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>00:06</v>
       </c>
       <c r="H14" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -900,22 +900,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C15" t="str">
-        <v>07-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>08:53</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>14:38</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>02:22</v>
       </c>
       <c r="H15" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -935,19 +935,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
-        <v>09:08</v>
+        <v>09:05</v>
       </c>
       <c r="E16" t="str">
-        <v>17:08</v>
+        <v>15:39</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>01:21</v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -970,22 +970,22 @@
         <v>SHERIF</v>
       </c>
       <c r="C17" t="str">
-        <v>11-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
         <v/>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>16:51</v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>00:09</v>
       </c>
       <c r="H17" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -1005,19 +1005,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C18" t="str">
-        <v>12-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
-        <v>09:17</v>
+        <v>08:55</v>
       </c>
       <c r="E18" t="str">
-        <v>16:44</v>
+        <v>16:58</v>
       </c>
       <c r="F18" t="str">
-        <v>00:07</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>00:16</v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -1040,19 +1040,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C19" t="str">
-        <v>13-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
-        <v>09:13</v>
+        <v>09:25</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>16:57</v>
       </c>
       <c r="F19" t="str">
-        <v>00:03</v>
+        <v>00:15</v>
       </c>
       <c r="G19" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1075,19 +1075,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C20" t="str">
-        <v>14-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
-        <v>09:06</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>16:53</v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="G20" t="str">
-        <v>01:00</v>
+        <v>00:07</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1110,19 +1110,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
-        <v>09:14</v>
+        <v>09:05</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>16:50</v>
       </c>
       <c r="F21" t="str">
-        <v>00:04</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>01:00</v>
+        <v>00:10</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1145,19 +1145,19 @@
         <v>SHERIF</v>
       </c>
       <c r="C22" t="str">
-        <v>18-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
-        <v>09:11</v>
+        <v>09:13</v>
       </c>
       <c r="E22" t="str">
-        <v>16:57</v>
+        <v>15:14</v>
       </c>
       <c r="F22" t="str">
-        <v>00:01</v>
+        <v>00:03</v>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>01:46</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1169,82 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>34</v>
-      </c>
-      <c r="B23" t="str">
-        <v>SHERIF</v>
-      </c>
-      <c r="C23" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v>True</v>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v>promech</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>34</v>
-      </c>
-      <c r="B24" t="str">
-        <v>SHERIF</v>
-      </c>
-      <c r="C24" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D24" t="str">
-        <v>09:26</v>
-      </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v>00:16</v>
-      </c>
-      <c r="G24" t="str">
-        <v>01:00</v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
         <v>promech</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
   </ignoredErrors>
 </worksheet>
 </file>